--- a/pred_ohlcv/54_21/2020-01-11 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 TRV ohlcv.xlsx
@@ -1302,7 +1302,7 @@
         <v>502839.7504685</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>511613.9381684999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>474804.7770684999</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>494167.1337684999</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>497667.0049213468</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>529385.1605213467</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>524496.4173213467</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>510001.1409213467</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>483329.1547213467</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>449049.0617213467</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>449049.0617213467</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>441880.5426213468</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>441880.5426213468</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>432576.5377213468</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>432995.0294213468</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>403286.2827213468</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>403286.2827213468</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>399070.5731213468</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>429723.5767213468</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>370732.9878213467</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>370874.9878213467</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>370185.0411213468</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>371316.9878213467</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-7158.223378653178</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>158582.3961213468</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>158582.3961213468</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>158526.8908213468</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>158526.8908213468</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>225507.3046213468</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-213522.6659786532</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>357493.0815213469</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>570194.4070213466</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>570234.4070213466</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>562174.9823213466</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>562174.9823213466</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>562284.7253213467</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>562284.7253213467</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>545008.4928213466</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>436995.2644213466</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>446643.5844213466</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>327783.2069213466</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-3916395.250656281</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-3916395.250656281</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-3930267.179156281</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-3922519.26425628</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-3914514.36595628</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-3914514.36595628</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-3914514.36595628</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-3910318.31665628</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-3931615.70365628</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-3986130.733356281</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-3985848.288856281</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-4138686.845356281</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-4168939.530556281</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-4168577.739756281</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-4168620.739756281</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-4076935.749256281</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-4076978.749256281</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 TRV ohlcv.xlsx
@@ -1302,7 +1302,7 @@
         <v>502839.7504685</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>511613.9381684999</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>474804.7770684999</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>494167.1337684999</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>497667.0049213468</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>529385.1605213467</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>529385.1605213467</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>529425.1605213467</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>524496.4173213467</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>510001.1409213467</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>483329.1547213467</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>449049.0617213467</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>121240.4855213468</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>121469.0159213468</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>357493.0815213469</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>357693.0815213469</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>340365.7223213469</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>470978.7311213469</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>470978.7311213469</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>470978.7311213469</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>470978.7311213469</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>457443.2342213469</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>364083.8075213468</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>384860.8075213468</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>384901.8075213468</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>372451.1754213469</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>468834.9637213468</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>476797.2364213468</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>536361.7471213468</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>518486.5160213468</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>465574.9675213468</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>465449.8771213468</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>562174.9823213466</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>562284.7253213467</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>562679.4653213467</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-3985848.288856281</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-4168620.739756281</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-4076935.749256281</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
